--- a/src/demos/zdemo_excel15_03.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_03.w3mi.data.xlsx
@@ -237,27 +237,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:M95" totalsRowShown="0">
-  <tableColumns count="13">
-    <tableColumn id="2" name="Airline"/>
-    <tableColumn id="3" name="Flight Number"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="Airfare"/>
-    <tableColumn id="6" name="Airline Currency"/>
-    <tableColumn id="7" name="Plane Type"/>
-    <tableColumn id="8" name="Max. capacity econ."/>
-    <tableColumn id="9" name="Occupied econ."/>
-    <tableColumn id="10" name="Total"/>
-    <tableColumn id="11" name="Max. capacity bus."/>
-    <tableColumn id="12" name="Occupied bus."/>
-    <tableColumn id="13" name="Max. capacity 1st"/>
-    <tableColumn id="14" name="Occupied 1st"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,7 +513,7 @@
     <col min="5" max="5" width="1.1000000000000000E+01" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -575,7 +554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -616,7 +595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -657,7 +636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -698,7 +677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -739,7 +718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -780,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -821,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -862,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -903,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -944,7 +923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -985,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1026,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1067,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1190,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1231,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1313,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1436,7 +1415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1477,7 +1456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1518,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1559,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1600,7 +1579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1641,7 +1620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +1661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1723,7 +1702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1764,7 +1743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1805,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1846,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1887,7 +1866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1928,7 +1907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2010,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2051,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2092,7 +2071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2133,7 +2112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2174,7 +2153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2215,7 +2194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2256,7 +2235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2297,7 +2276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2379,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2420,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -2461,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2502,7 +2481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -2543,7 +2522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2584,7 +2563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -2625,7 +2604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2666,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -2707,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2789,7 +2768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -2830,7 +2809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -2871,7 +2850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -2912,7 +2891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2953,7 +2932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -2994,7 +2973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -3035,7 +3014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -3076,7 +3055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3117,7 +3096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3158,7 +3137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3199,7 +3178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -3240,7 +3219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -3281,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -3322,7 +3301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -3363,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -3404,7 +3383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -3445,7 +3424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -3486,7 +3465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -3527,7 +3506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -3568,7 +3547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -3609,7 +3588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -3650,7 +3629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -3691,7 +3670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -3732,7 +3711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -3773,7 +3752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -3814,7 +3793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -3855,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -3896,7 +3875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -3937,7 +3916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -3978,7 +3957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -4019,7 +3998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -4060,7 +4039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -4101,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -4142,7 +4121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -4183,7 +4162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A90" t="s">
         <v>54</v>
       </c>
@@ -4224,7 +4203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -4265,7 +4244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -4306,7 +4285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -4347,7 +4326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -4388,7 +4367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" ht="0.0000000000000000E+00">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -4431,7 +4410,7 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" ShowDropDown="0" errorStyle="stop" sqref="C4">
+    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" ShowDropDown="1" errorStyle="stop" sqref="C4">
       <formula1>Airlines</formula1>
     </dataValidation>
   </dataValidations>
@@ -4440,9 +4419,6 @@
   <ignoredErrors>
     <ignoredError sqref="B2:B95" numberStoredAsText="1"/>
   </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -4459,97 +4435,97 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A19" t="s">
         <v>54</v>
       </c>

--- a/src/demos/zdemo_excel15_03.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_03.w3mi.data.xlsx
@@ -265,7 +265,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,9 +403,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 
